--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H2">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I2">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J2">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03442933333333333</v>
+        <v>0.01590466666666667</v>
       </c>
       <c r="N2">
-        <v>0.103288</v>
+        <v>0.047714</v>
       </c>
       <c r="O2">
-        <v>0.1863913120369001</v>
+        <v>0.06171161325285154</v>
       </c>
       <c r="P2">
-        <v>0.1863913120369</v>
+        <v>0.06171161325285156</v>
       </c>
       <c r="Q2">
-        <v>0.008036885185777777</v>
+        <v>0.01547309353666667</v>
       </c>
       <c r="R2">
-        <v>0.07233196667199999</v>
+        <v>0.13925784183</v>
       </c>
       <c r="S2">
-        <v>0.005203384966991642</v>
+        <v>0.006110692044275784</v>
       </c>
       <c r="T2">
-        <v>0.005203384966991641</v>
+        <v>0.006110692044275784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H3">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I3">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J3">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.231069</v>
       </c>
       <c r="O3">
-        <v>0.4169821671545045</v>
+        <v>0.2988565360842342</v>
       </c>
       <c r="P3">
-        <v>0.4169821671545044</v>
+        <v>0.2988565360842343</v>
       </c>
       <c r="Q3">
-        <v>0.01797958158733333</v>
+        <v>0.07493298089499999</v>
       </c>
       <c r="R3">
-        <v>0.161816234286</v>
+        <v>0.6743968280549999</v>
       </c>
       <c r="S3">
-        <v>0.01164066455868825</v>
+        <v>0.02959281342957541</v>
       </c>
       <c r="T3">
-        <v>0.01164066455868825</v>
+        <v>0.02959281342957541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H4">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I4">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J4">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02858633333333334</v>
+        <v>0.1096873333333333</v>
       </c>
       <c r="N4">
-        <v>0.085759</v>
+        <v>0.329062</v>
       </c>
       <c r="O4">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807065</v>
       </c>
       <c r="P4">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807066</v>
       </c>
       <c r="Q4">
-        <v>0.006672945905111111</v>
+        <v>0.1067109675433333</v>
       </c>
       <c r="R4">
-        <v>0.060056513146</v>
+        <v>0.9603987078899998</v>
       </c>
       <c r="S4">
-        <v>0.004320318830689298</v>
+        <v>0.04214269492127001</v>
       </c>
       <c r="T4">
-        <v>0.004320318830689297</v>
+        <v>0.04214269492127002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H5">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I5">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J5">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03202633333333333</v>
+        <v>0.05062133333333333</v>
       </c>
       <c r="N5">
-        <v>0.096079</v>
+        <v>0.151864</v>
       </c>
       <c r="O5">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="P5">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="Q5">
-        <v>0.007475949691777777</v>
+        <v>0.04924772345333333</v>
       </c>
       <c r="R5">
-        <v>0.067283547226</v>
+        <v>0.44322951108</v>
       </c>
       <c r="S5">
-        <v>0.00484021400592121</v>
+        <v>0.01944909537267673</v>
       </c>
       <c r="T5">
-        <v>0.00484021400592121</v>
+        <v>0.01944909537267673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H6">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I6">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J6">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.009117666666666668</v>
+        <v>0.004245333333333334</v>
       </c>
       <c r="N6">
-        <v>0.027353</v>
+        <v>0.012736</v>
       </c>
       <c r="O6">
-        <v>0.04936063781025219</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="P6">
-        <v>0.04936063781025218</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="Q6">
-        <v>0.002128349086888889</v>
+        <v>0.004130136213333333</v>
       </c>
       <c r="R6">
-        <v>0.019155141782</v>
+        <v>0.03717122592</v>
       </c>
       <c r="S6">
-        <v>0.00137797410156187</v>
+        <v>0.001631088860206572</v>
       </c>
       <c r="T6">
-        <v>0.00137797410156187</v>
+        <v>0.001631088860206572</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H7">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I7">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J7">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.003532666666666667</v>
+        <v>0.000244</v>
       </c>
       <c r="N7">
-        <v>0.010598</v>
+        <v>0.000732</v>
       </c>
       <c r="O7">
-        <v>0.01912492375655514</v>
+        <v>0.0009467431131552024</v>
       </c>
       <c r="P7">
-        <v>0.01912492375655513</v>
+        <v>0.0009467431131552027</v>
       </c>
       <c r="Q7">
-        <v>0.0008246350902222222</v>
+        <v>0.00023737906</v>
       </c>
       <c r="R7">
-        <v>0.007421715812</v>
+        <v>0.00213641154</v>
       </c>
       <c r="S7">
-        <v>0.0005339001034019191</v>
+        <v>9.374662732971189E-05</v>
       </c>
       <c r="T7">
-        <v>0.000533900103401919</v>
+        <v>9.374662732971191E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>1.401135</v>
       </c>
       <c r="I8">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J8">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03442933333333333</v>
+        <v>0.01590466666666667</v>
       </c>
       <c r="N8">
-        <v>0.103288</v>
+        <v>0.047714</v>
       </c>
       <c r="O8">
-        <v>0.1863913120369001</v>
+        <v>0.06171161325285154</v>
       </c>
       <c r="P8">
-        <v>0.1863913120369</v>
+        <v>0.06171161325285156</v>
       </c>
       <c r="Q8">
-        <v>0.01608004798666667</v>
+        <v>0.007428195043333333</v>
       </c>
       <c r="R8">
-        <v>0.14472043188</v>
+        <v>0.06685375538999999</v>
       </c>
       <c r="S8">
-        <v>0.01041083430063064</v>
+        <v>0.002933570604162739</v>
       </c>
       <c r="T8">
-        <v>0.01041083430063064</v>
+        <v>0.002933570604162739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.401135</v>
       </c>
       <c r="I9">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J9">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.231069</v>
       </c>
       <c r="O9">
-        <v>0.4169821671545045</v>
+        <v>0.2988565360842342</v>
       </c>
       <c r="P9">
-        <v>0.4169821671545044</v>
+        <v>0.2988565360842343</v>
       </c>
       <c r="Q9">
         <v>0.03597320703499999</v>
@@ -1013,10 +1013,10 @@
         <v>0.3237588633149999</v>
       </c>
       <c r="S9">
-        <v>0.02329042164639088</v>
+        <v>0.01420667363736597</v>
       </c>
       <c r="T9">
-        <v>0.02329042164639087</v>
+        <v>0.01420667363736597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.401135</v>
       </c>
       <c r="I10">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J10">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.02858633333333334</v>
+        <v>0.1096873333333333</v>
       </c>
       <c r="N10">
-        <v>0.085759</v>
+        <v>0.329062</v>
       </c>
       <c r="O10">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807065</v>
       </c>
       <c r="P10">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807066</v>
       </c>
       <c r="Q10">
-        <v>0.01335110405166666</v>
+        <v>0.05122892059666665</v>
       </c>
       <c r="R10">
-        <v>0.120159936465</v>
+        <v>0.4610602853699999</v>
       </c>
       <c r="S10">
-        <v>0.008644012264617217</v>
+        <v>0.02023151716785428</v>
       </c>
       <c r="T10">
-        <v>0.008644012264617213</v>
+        <v>0.02023151716785428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.401135</v>
       </c>
       <c r="I11">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J11">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03202633333333333</v>
+        <v>0.05062133333333333</v>
       </c>
       <c r="N11">
-        <v>0.096079</v>
+        <v>0.151864</v>
       </c>
       <c r="O11">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="P11">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="Q11">
-        <v>0.01495773885166666</v>
+        <v>0.02364244062666666</v>
       </c>
       <c r="R11">
-        <v>0.134619649665</v>
+        <v>0.21278196564</v>
       </c>
       <c r="S11">
-        <v>0.009684208705467151</v>
+        <v>0.009336961190228657</v>
       </c>
       <c r="T11">
-        <v>0.00968420870546715</v>
+        <v>0.009336961190228657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.401135</v>
       </c>
       <c r="I12">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J12">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.009117666666666668</v>
+        <v>0.004245333333333334</v>
       </c>
       <c r="N12">
-        <v>0.027353</v>
+        <v>0.012736</v>
       </c>
       <c r="O12">
-        <v>0.04936063781025219</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="P12">
-        <v>0.04936063781025218</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="Q12">
-        <v>0.004258360628333333</v>
+        <v>0.001982761706666667</v>
       </c>
       <c r="R12">
-        <v>0.038325245655</v>
+        <v>0.01784485536</v>
       </c>
       <c r="S12">
-        <v>0.002757024539396153</v>
+        <v>0.0007830396783882433</v>
       </c>
       <c r="T12">
-        <v>0.002757024539396153</v>
+        <v>0.0007830396783882434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.401135</v>
       </c>
       <c r="I13">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J13">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.003532666666666667</v>
+        <v>0.000244</v>
       </c>
       <c r="N13">
-        <v>0.010598</v>
+        <v>0.000732</v>
       </c>
       <c r="O13">
-        <v>0.01912492375655514</v>
+        <v>0.0009467431131552024</v>
       </c>
       <c r="P13">
-        <v>0.01912492375655513</v>
+        <v>0.0009467431131552027</v>
       </c>
       <c r="Q13">
-        <v>0.001649914303333333</v>
+        <v>0.00011395898</v>
       </c>
       <c r="R13">
-        <v>0.01484922873</v>
+        <v>0.00102563082</v>
       </c>
       <c r="S13">
-        <v>0.001068217236446475</v>
+        <v>4.500510714354539E-05</v>
       </c>
       <c r="T13">
-        <v>0.001068217236446475</v>
+        <v>4.500510714354539E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H14">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I14">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J14">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03442933333333333</v>
+        <v>0.01590466666666667</v>
       </c>
       <c r="N14">
-        <v>0.103288</v>
+        <v>0.047714</v>
       </c>
       <c r="O14">
-        <v>0.1863913120369001</v>
+        <v>0.06171161325285154</v>
       </c>
       <c r="P14">
-        <v>0.1863913120369</v>
+        <v>0.06171161325285156</v>
       </c>
       <c r="Q14">
-        <v>0.01663851472622222</v>
+        <v>0.02587038235644445</v>
       </c>
       <c r="R14">
-        <v>0.149746632536</v>
+        <v>0.232833441208</v>
       </c>
       <c r="S14">
-        <v>0.01077240689623156</v>
+        <v>0.01021682828151207</v>
       </c>
       <c r="T14">
-        <v>0.01077240689623155</v>
+        <v>0.01021682828151207</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H15">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I15">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J15">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.231069</v>
       </c>
       <c r="O15">
-        <v>0.4169821671545045</v>
+        <v>0.2988565360842342</v>
       </c>
       <c r="P15">
-        <v>0.4169821671545044</v>
+        <v>0.2988565360842343</v>
       </c>
       <c r="Q15">
-        <v>0.03722257144366666</v>
+        <v>0.1252848929186667</v>
       </c>
       <c r="R15">
-        <v>0.335003142993</v>
+        <v>1.127564036268</v>
       </c>
       <c r="S15">
-        <v>0.02409930765534553</v>
+        <v>0.04947797908749451</v>
       </c>
       <c r="T15">
-        <v>0.02409930765534553</v>
+        <v>0.04947797908749451</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H16">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I16">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J16">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.02858633333333334</v>
+        <v>0.1096873333333333</v>
       </c>
       <c r="N16">
-        <v>0.085759</v>
+        <v>0.329062</v>
       </c>
       <c r="O16">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807065</v>
       </c>
       <c r="P16">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807066</v>
       </c>
       <c r="Q16">
-        <v>0.01381479343588889</v>
+        <v>0.1784163926515555</v>
       </c>
       <c r="R16">
-        <v>0.124333140923</v>
+        <v>1.605747533864</v>
       </c>
       <c r="S16">
-        <v>0.008944222397702753</v>
+        <v>0.07046086993274353</v>
       </c>
       <c r="T16">
-        <v>0.008944222397702753</v>
+        <v>0.07046086993274354</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H17">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I17">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J17">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03202633333333333</v>
+        <v>0.05062133333333333</v>
       </c>
       <c r="N17">
-        <v>0.096079</v>
+        <v>0.151864</v>
       </c>
       <c r="O17">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="P17">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="Q17">
-        <v>0.01547722732922222</v>
+        <v>0.08234018833422223</v>
       </c>
       <c r="R17">
-        <v>0.139295045963</v>
+        <v>0.741061695008</v>
       </c>
       <c r="S17">
-        <v>0.01002054529260932</v>
+        <v>0.03251809553052666</v>
       </c>
       <c r="T17">
-        <v>0.01002054529260932</v>
+        <v>0.03251809553052667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H18">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I18">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J18">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.009117666666666668</v>
+        <v>0.004245333333333334</v>
       </c>
       <c r="N18">
-        <v>0.027353</v>
+        <v>0.012736</v>
       </c>
       <c r="O18">
-        <v>0.04936063781025219</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="P18">
-        <v>0.04936063781025218</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="Q18">
-        <v>0.004406255260111112</v>
+        <v>0.006905419576888889</v>
       </c>
       <c r="R18">
-        <v>0.03965629734100001</v>
+        <v>0.062148776192</v>
       </c>
       <c r="S18">
-        <v>0.002852777145773195</v>
+        <v>0.002727114159226595</v>
       </c>
       <c r="T18">
-        <v>0.002852777145773195</v>
+        <v>0.002727114159226595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H19">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I19">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J19">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.003532666666666667</v>
+        <v>0.000244</v>
       </c>
       <c r="N19">
-        <v>0.010598</v>
+        <v>0.000732</v>
       </c>
       <c r="O19">
-        <v>0.01912492375655514</v>
+        <v>0.0009467431131552024</v>
       </c>
       <c r="P19">
-        <v>0.01912492375655513</v>
+        <v>0.0009467431131552027</v>
       </c>
       <c r="Q19">
-        <v>0.001707216511777778</v>
+        <v>0.0003968881226666667</v>
       </c>
       <c r="R19">
-        <v>0.015364948606</v>
+        <v>0.003571993104</v>
       </c>
       <c r="S19">
-        <v>0.001105316864362385</v>
+        <v>0.0001567405436992672</v>
       </c>
       <c r="T19">
-        <v>0.001105316864362385</v>
+        <v>0.0001567405436992672</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H20">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I20">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J20">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.03442933333333333</v>
+        <v>0.01590466666666667</v>
       </c>
       <c r="N20">
-        <v>0.103288</v>
+        <v>0.047714</v>
       </c>
       <c r="O20">
-        <v>0.1863913120369001</v>
+        <v>0.06171161325285154</v>
       </c>
       <c r="P20">
-        <v>0.1863913120369</v>
+        <v>0.06171161325285156</v>
       </c>
       <c r="Q20">
-        <v>0.00792190268888889</v>
+        <v>0.006611850915777778</v>
       </c>
       <c r="R20">
-        <v>0.07129712420000001</v>
+        <v>0.059506658242</v>
       </c>
       <c r="S20">
-        <v>0.005128940927796263</v>
+        <v>0.002611176924203144</v>
       </c>
       <c r="T20">
-        <v>0.005128940927796262</v>
+        <v>0.002611176924203144</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H21">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I21">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J21">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.231069</v>
       </c>
       <c r="O21">
-        <v>0.4169821671545045</v>
+        <v>0.2988565360842342</v>
       </c>
       <c r="P21">
-        <v>0.4169821671545044</v>
+        <v>0.2988565360842343</v>
       </c>
       <c r="Q21">
-        <v>0.01772235044166667</v>
+        <v>0.03201982183966667</v>
       </c>
       <c r="R21">
-        <v>0.159501153975</v>
+        <v>0.288178396557</v>
       </c>
       <c r="S21">
-        <v>0.01147412333712488</v>
+        <v>0.01264538795109813</v>
       </c>
       <c r="T21">
-        <v>0.01147412333712488</v>
+        <v>0.01264538795109813</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H22">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I22">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J22">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.02858633333333334</v>
+        <v>0.1096873333333333</v>
       </c>
       <c r="N22">
-        <v>0.085759</v>
+        <v>0.329062</v>
       </c>
       <c r="O22">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807065</v>
       </c>
       <c r="P22">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807066</v>
       </c>
       <c r="Q22">
-        <v>0.006577477080555557</v>
+        <v>0.04559896227622221</v>
       </c>
       <c r="R22">
-        <v>0.05919729372500001</v>
+        <v>0.4103906604859999</v>
       </c>
       <c r="S22">
-        <v>0.004258508684715356</v>
+        <v>0.01800811294446357</v>
       </c>
       <c r="T22">
-        <v>0.004258508684715355</v>
+        <v>0.01800811294446357</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H23">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I23">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J23">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.03202633333333333</v>
+        <v>0.05062133333333333</v>
       </c>
       <c r="N23">
-        <v>0.096079</v>
+        <v>0.151864</v>
       </c>
       <c r="O23">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="P23">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="Q23">
-        <v>0.007368992413888889</v>
+        <v>0.02104418257688889</v>
       </c>
       <c r="R23">
-        <v>0.066320931725</v>
+        <v>0.189397643192</v>
       </c>
       <c r="S23">
-        <v>0.004770965798560695</v>
+        <v>0.008310847391063131</v>
       </c>
       <c r="T23">
-        <v>0.004770965798560694</v>
+        <v>0.008310847391063133</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H24">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I24">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J24">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.009117666666666668</v>
+        <v>0.004245333333333334</v>
       </c>
       <c r="N24">
-        <v>0.027353</v>
+        <v>0.012736</v>
       </c>
       <c r="O24">
-        <v>0.04936063781025219</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="P24">
-        <v>0.04936063781025218</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="Q24">
-        <v>0.002097899119444445</v>
+        <v>0.001764860067555556</v>
       </c>
       <c r="R24">
-        <v>0.018881092075</v>
+        <v>0.015883740608</v>
       </c>
       <c r="S24">
-        <v>0.00135825963517554</v>
+        <v>0.0006969851470564456</v>
       </c>
       <c r="T24">
-        <v>0.00135825963517554</v>
+        <v>0.0006969851470564456</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H25">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I25">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J25">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.003532666666666667</v>
+        <v>0.000244</v>
       </c>
       <c r="N25">
-        <v>0.010598</v>
+        <v>0.000732</v>
       </c>
       <c r="O25">
-        <v>0.01912492375655514</v>
+        <v>0.0009467431131552024</v>
       </c>
       <c r="P25">
-        <v>0.01912492375655513</v>
+        <v>0.0009467431131552027</v>
       </c>
       <c r="Q25">
-        <v>0.0008128371611111112</v>
+        <v>0.0001014351106666667</v>
       </c>
       <c r="R25">
-        <v>0.007315534450000001</v>
+        <v>0.000912915996</v>
       </c>
       <c r="S25">
-        <v>0.0005262616756330338</v>
+        <v>4.005913376612109E-05</v>
       </c>
       <c r="T25">
-        <v>0.0005262616756330337</v>
+        <v>4.005913376612109E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H26">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I26">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J26">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.03442933333333333</v>
+        <v>0.01590466666666667</v>
       </c>
       <c r="N26">
-        <v>0.103288</v>
+        <v>0.047714</v>
       </c>
       <c r="O26">
-        <v>0.1863913120369001</v>
+        <v>0.06171161325285154</v>
       </c>
       <c r="P26">
-        <v>0.1863913120369</v>
+        <v>0.06171161325285156</v>
       </c>
       <c r="Q26">
-        <v>0.1664765915715556</v>
+        <v>0.08731865049577779</v>
       </c>
       <c r="R26">
-        <v>1.498289324144</v>
+        <v>0.785867854462</v>
       </c>
       <c r="S26">
-        <v>0.107783273484155</v>
+        <v>0.03448420845107839</v>
       </c>
       <c r="T26">
-        <v>0.1077832734841549</v>
+        <v>0.03448420845107839</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H27">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I27">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J27">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.231069</v>
       </c>
       <c r="O27">
-        <v>0.4169821671545045</v>
+        <v>0.2988565360842342</v>
       </c>
       <c r="P27">
-        <v>0.4169821671545044</v>
+        <v>0.2988565360842343</v>
       </c>
       <c r="Q27">
-        <v>0.3724302875246667</v>
+        <v>0.4228661032696667</v>
       </c>
       <c r="R27">
-        <v>3.351872587722</v>
+        <v>3.805794929427</v>
       </c>
       <c r="S27">
-        <v>0.2411255249468496</v>
+        <v>0.1669998650832508</v>
       </c>
       <c r="T27">
-        <v>0.2411255249468495</v>
+        <v>0.1669998650832509</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H28">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I28">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J28">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.02858633333333334</v>
+        <v>0.1096873333333333</v>
       </c>
       <c r="N28">
-        <v>0.085759</v>
+        <v>0.329062</v>
       </c>
       <c r="O28">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807065</v>
       </c>
       <c r="P28">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807066</v>
       </c>
       <c r="Q28">
-        <v>0.1382238596602222</v>
+        <v>0.6021974634162222</v>
       </c>
       <c r="R28">
-        <v>1.244014736942</v>
+        <v>5.419777170746</v>
       </c>
       <c r="S28">
-        <v>0.08949138090317989</v>
+        <v>0.2378220774055571</v>
       </c>
       <c r="T28">
-        <v>0.08949138090317986</v>
+        <v>0.2378220774055572</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H29">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I29">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J29">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.03202633333333333</v>
+        <v>0.05062133333333333</v>
       </c>
       <c r="N29">
-        <v>0.096079</v>
+        <v>0.151864</v>
       </c>
       <c r="O29">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="P29">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="Q29">
-        <v>0.1548573352335555</v>
+        <v>0.2779175826568889</v>
       </c>
       <c r="R29">
-        <v>1.393716017102</v>
+        <v>2.501258243912</v>
       </c>
       <c r="S29">
-        <v>0.1002605252602831</v>
+        <v>0.109756252509003</v>
       </c>
       <c r="T29">
-        <v>0.1002605252602831</v>
+        <v>0.109756252509003</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H30">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I30">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J30">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.009117666666666668</v>
+        <v>0.004245333333333334</v>
       </c>
       <c r="N30">
-        <v>0.027353</v>
+        <v>0.012736</v>
       </c>
       <c r="O30">
-        <v>0.04936063781025219</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="P30">
-        <v>0.04936063781025218</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="Q30">
-        <v>0.04408676912377778</v>
+        <v>0.02330742198755556</v>
       </c>
       <c r="R30">
-        <v>0.3967809221140001</v>
+        <v>0.209766797888</v>
       </c>
       <c r="S30">
-        <v>0.02854345015502373</v>
+        <v>0.009204654374668532</v>
       </c>
       <c r="T30">
-        <v>0.02854345015502372</v>
+        <v>0.009204654374668534</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H31">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I31">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J31">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.003532666666666667</v>
+        <v>0.000244</v>
       </c>
       <c r="N31">
-        <v>0.010598</v>
+        <v>0.000732</v>
       </c>
       <c r="O31">
-        <v>0.01912492375655514</v>
+        <v>0.0009467431131552024</v>
       </c>
       <c r="P31">
-        <v>0.01912492375655513</v>
+        <v>0.0009467431131552027</v>
       </c>
       <c r="Q31">
-        <v>0.01708154788044445</v>
+        <v>0.001339591150666667</v>
       </c>
       <c r="R31">
-        <v>0.153733930924</v>
+        <v>0.012056320356</v>
       </c>
       <c r="S31">
-        <v>0.01105924340083141</v>
+        <v>0.0005290363538204589</v>
       </c>
       <c r="T31">
-        <v>0.0110592434008314</v>
+        <v>0.000529036353820459</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H32">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I32">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J32">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.03442933333333333</v>
+        <v>0.01590466666666667</v>
       </c>
       <c r="N32">
-        <v>0.103288</v>
+        <v>0.047714</v>
       </c>
       <c r="O32">
-        <v>0.1863913120369001</v>
+        <v>0.06171161325285154</v>
       </c>
       <c r="P32">
-        <v>0.1863913120369</v>
+        <v>0.06171161325285156</v>
       </c>
       <c r="Q32">
-        <v>0.07273664905600001</v>
+        <v>0.01355992648488889</v>
       </c>
       <c r="R32">
-        <v>0.6546298415040001</v>
+        <v>0.122039338364</v>
       </c>
       <c r="S32">
-        <v>0.047092471461095</v>
+        <v>0.005355136947619426</v>
       </c>
       <c r="T32">
-        <v>0.047092471461095</v>
+        <v>0.005355136947619427</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H33">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I33">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J33">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.231069</v>
       </c>
       <c r="O33">
-        <v>0.4169821671545045</v>
+        <v>0.2988565360842342</v>
       </c>
       <c r="P33">
-        <v>0.4169821671545044</v>
+        <v>0.2988565360842343</v>
       </c>
       <c r="Q33">
-        <v>0.162721562628</v>
+        <v>0.06566790989933333</v>
       </c>
       <c r="R33">
-        <v>1.464494063652</v>
+        <v>0.591011189094</v>
       </c>
       <c r="S33">
-        <v>0.1053521250101053</v>
+        <v>0.02593381689544941</v>
       </c>
       <c r="T33">
-        <v>0.1053521250101053</v>
+        <v>0.02593381689544941</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H34">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I34">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J34">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.02858633333333334</v>
+        <v>0.1096873333333333</v>
       </c>
       <c r="N34">
-        <v>0.085759</v>
+        <v>0.329062</v>
       </c>
       <c r="O34">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807065</v>
       </c>
       <c r="P34">
-        <v>0.1547588541647869</v>
+        <v>0.4255972435807066</v>
       </c>
       <c r="Q34">
-        <v>0.06039251690800001</v>
+        <v>0.09351671477911108</v>
       </c>
       <c r="R34">
-        <v>0.5435326521720001</v>
+        <v>0.8416504330119998</v>
       </c>
       <c r="S34">
-        <v>0.03910041108388241</v>
+        <v>0.03693197120881803</v>
       </c>
       <c r="T34">
-        <v>0.0391004110838824</v>
+        <v>0.03693197120881803</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H35">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I35">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J35">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.03202633333333333</v>
+        <v>0.05062133333333333</v>
       </c>
       <c r="N35">
-        <v>0.096079</v>
+        <v>0.151864</v>
       </c>
       <c r="O35">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="P35">
-        <v>0.1733821050770014</v>
+        <v>0.1964155684920788</v>
       </c>
       <c r="Q35">
-        <v>0.067659984748</v>
+        <v>0.04315850014044444</v>
       </c>
       <c r="R35">
-        <v>0.6089398627320001</v>
+        <v>0.388426501264</v>
       </c>
       <c r="S35">
-        <v>0.04380564601415989</v>
+        <v>0.01704431649858064</v>
       </c>
       <c r="T35">
-        <v>0.04380564601415989</v>
+        <v>0.01704431649858064</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H36">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I36">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J36">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.009117666666666668</v>
+        <v>0.004245333333333334</v>
       </c>
       <c r="N36">
-        <v>0.027353</v>
+        <v>0.012736</v>
       </c>
       <c r="O36">
-        <v>0.04936063781025219</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="P36">
-        <v>0.04936063781025218</v>
+        <v>0.01647229547697358</v>
       </c>
       <c r="Q36">
-        <v>0.019262310836</v>
+        <v>0.003619466481777777</v>
       </c>
       <c r="R36">
-        <v>0.173360797524</v>
+        <v>0.032575198336</v>
       </c>
       <c r="S36">
-        <v>0.0124711522333217</v>
+        <v>0.001429413257427191</v>
       </c>
       <c r="T36">
-        <v>0.0124711522333217</v>
+        <v>0.001429413257427192</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H37">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I37">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J37">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.003532666666666667</v>
+        <v>0.000244</v>
       </c>
       <c r="N37">
-        <v>0.010598</v>
+        <v>0.000732</v>
       </c>
       <c r="O37">
-        <v>0.01912492375655514</v>
+        <v>0.0009467431131552024</v>
       </c>
       <c r="P37">
-        <v>0.01912492375655513</v>
+        <v>0.0009467431131552027</v>
       </c>
       <c r="Q37">
-        <v>0.007463238776000001</v>
+        <v>0.0002080283813333333</v>
       </c>
       <c r="R37">
-        <v>0.067169148984</v>
+        <v>0.001872255432</v>
       </c>
       <c r="S37">
-        <v>0.004831984475879916</v>
+        <v>8.2155347396098E-05</v>
       </c>
       <c r="T37">
-        <v>0.004831984475879916</v>
+        <v>8.215534739609801E-05</v>
       </c>
     </row>
   </sheetData>
